--- a/data/trans_dic/P69$agotado-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P69$agotado-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1525768017666979</v>
+        <v>0.1455626113287999</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1233941163696386</v>
+        <v>0.1135360442513225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2160144082797676</v>
+        <v>0.2270797374387858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.197008681340344</v>
+        <v>0.1954163776259849</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1279174798235662</v>
+        <v>0.1361183443802963</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1457917249246131</v>
+        <v>0.1213544631288487</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3098849990878937</v>
+        <v>0.3125516150939969</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3454430933132311</v>
+        <v>0.3429008772570322</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1619499338059577</v>
+        <v>0.1755931456118607</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1567862629268995</v>
+        <v>0.1565124478926312</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3075688026004506</v>
+        <v>0.3151661930719852</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3209100885577131</v>
+        <v>0.3142996567919536</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3667534018142662</v>
+        <v>0.3643377029014981</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3457503160296667</v>
+        <v>0.3643187551374132</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.507496092234042</v>
+        <v>0.5213180604820756</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5050235558302957</v>
+        <v>0.5025472433402883</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3777217996631783</v>
+        <v>0.3738612686783978</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4183379957997032</v>
+        <v>0.4107937171852487</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6276646329253834</v>
+        <v>0.6098555987454045</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5734225006582065</v>
+        <v>0.5690156171638874</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3180077507992635</v>
+        <v>0.3259118603149975</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3320794340339701</v>
+        <v>0.3324561502543399</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5228902058029296</v>
+        <v>0.5239176182364762</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4962650158901819</v>
+        <v>0.4985528130064094</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3379350583163723</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.293086152660934</v>
+        <v>0.2930861526609341</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2016983978921036</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1139025630144488</v>
+        <v>0.117267892666169</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1367089397579651</v>
+        <v>0.152025653946299</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2208034107166945</v>
+        <v>0.2248050628293205</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1185107023078232</v>
+        <v>0.1270951545562255</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07815589501152824</v>
+        <v>0.07688583305485934</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03630199383633115</v>
+        <v>0.03547557963196978</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1924890362298068</v>
+        <v>0.1909604051726641</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1861505872197511</v>
+        <v>0.1831691919490581</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1277180788927975</v>
+        <v>0.1178914668072758</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1239325582375494</v>
+        <v>0.1185137618193609</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2520450683218315</v>
+        <v>0.2468402821609485</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1831019004421101</v>
+        <v>0.1743818038585309</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.391847690669245</v>
+        <v>0.3972257878222619</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4322434628192544</v>
+        <v>0.4507288309924103</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5827543730490194</v>
+        <v>0.6247853929426073</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3651845077604574</v>
+        <v>0.3781536476628012</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3224640553146668</v>
+        <v>0.338086991013011</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3245813736168572</v>
+        <v>0.3195402446215541</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5285052050507109</v>
+        <v>0.5301871869575047</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.420966144701125</v>
+        <v>0.4253023256986019</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.30923955900921</v>
+        <v>0.3033689161386591</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3335945077435126</v>
+        <v>0.3337512530736705</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5071773030942095</v>
+        <v>0.4986969954091313</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3530948402204757</v>
+        <v>0.3472478485303028</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3652912503360841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3651661741007851</v>
+        <v>0.3651661741007852</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2957722777257321</v>
@@ -957,7 +957,7 @@
         <v>0.5812362548876189</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3595134073161387</v>
+        <v>0.3595134073161389</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3524062866534025</v>
@@ -969,7 +969,7 @@
         <v>0.3926509435035496</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3637211901987896</v>
+        <v>0.3637211901987895</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2657364307179589</v>
+        <v>0.2619998990863172</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1359020332175761</v>
+        <v>0.1383041427623377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2476811705719806</v>
+        <v>0.2502395177339083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2244185681187092</v>
+        <v>0.2197820974756114</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1037557784589549</v>
+        <v>0.07307873669267174</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2331143053029339</v>
+        <v>0.227117645675935</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2418021701265463</v>
+        <v>0.2351731911211167</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2009786134927375</v>
+        <v>0.2003122538991923</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2582009661299244</v>
+        <v>0.2566109452309338</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.189060844273933</v>
+        <v>0.1958694203577982</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2818271586007951</v>
+        <v>0.2868841704914508</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2506058654331856</v>
+        <v>0.2574671365559189</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4653621409959083</v>
+        <v>0.4644219629653671</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3329986963759753</v>
+        <v>0.3215764215629483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4977831931632665</v>
+        <v>0.4913512381498266</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5221655629914433</v>
+        <v>0.5284041459122908</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5898296238234926</v>
+        <v>0.5819117877432107</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5801687432978592</v>
+        <v>0.5676634299740553</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.896767118713815</v>
+        <v>0.899049490165445</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5473421447294902</v>
+        <v>0.5448427555419433</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4449035284887307</v>
+        <v>0.438472930163828</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3663433124456827</v>
+        <v>0.3746912517804797</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5057733750520332</v>
+        <v>0.5226868263655147</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4954454846343745</v>
+        <v>0.50773165600022</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2588471750575133</v>
+        <v>0.261810718775574</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1499667265462188</v>
+        <v>0.1535205182343888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3256479083272922</v>
+        <v>0.3225512338678002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3236193030181648</v>
+        <v>0.3261974344966713</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2021273402422773</v>
+        <v>0.2000454230130679</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2927679844472689</v>
+        <v>0.3068827540450393</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2767816387610321</v>
+        <v>0.2704333840211193</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3294482687885659</v>
+        <v>0.31838225359486</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2674931192775579</v>
+        <v>0.2667873334255012</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.232373557048859</v>
+        <v>0.2336802770104225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3251477467349042</v>
+        <v>0.3298627636370788</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3486578874547864</v>
+        <v>0.3432955802159192</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3925524381890708</v>
+        <v>0.4004823435887556</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3156085354635095</v>
+        <v>0.3115166358579948</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4908837507308711</v>
+        <v>0.4970876671627811</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5115977802520997</v>
+        <v>0.5170826148913358</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4570443736239136</v>
+        <v>0.4605050273683822</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5421924442362853</v>
+        <v>0.551110380613211</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4827960251485542</v>
+        <v>0.4832536410281183</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4829744971769567</v>
+        <v>0.4795849240071549</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3909732072458518</v>
+        <v>0.3887996724389081</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3700771380552313</v>
+        <v>0.3686101626623745</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.461703026809701</v>
+        <v>0.4631544602446008</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4743029029058193</v>
+        <v>0.4726388299248833</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2230679790739841</v>
+        <v>0.2304073701646714</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1580100998747492</v>
+        <v>0.1727212432329041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2691846467261138</v>
+        <v>0.2702849236160565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2517135150831811</v>
+        <v>0.2516724824729656</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3050877404723817</v>
+        <v>0.3099343929128556</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2725225708975465</v>
+        <v>0.2687497777620036</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3123543671057329</v>
+        <v>0.3147823116348984</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4094544788974687</v>
+        <v>0.4199329909003738</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3029244720224912</v>
+        <v>0.304124692303107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.265140137544751</v>
+        <v>0.262897126246168</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.323706129063587</v>
+        <v>0.3334280197180769</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3797516742553979</v>
+        <v>0.3787554461463032</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4756028459228854</v>
+        <v>0.4808776852712447</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4732766872437409</v>
+        <v>0.4733712797636656</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5189838211310125</v>
+        <v>0.5152466482413276</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5070594984925854</v>
+        <v>0.5280235220692185</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5557825552554</v>
+        <v>0.5545552474762575</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6001372712955806</v>
+        <v>0.5886039875275544</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.592912782573356</v>
+        <v>0.5922226329320035</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5777330543700731</v>
+        <v>0.5912857210546125</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4861106842818154</v>
+        <v>0.4815044602897187</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4902389498577622</v>
+        <v>0.4820449117723917</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5118724382445154</v>
+        <v>0.5209087107456424</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.53106256296117</v>
+        <v>0.5313446188209031</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4153820692280323</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4240601022513134</v>
+        <v>0.4240601022513136</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3137189583417468</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2729994480930364</v>
+        <v>0.2732959653132987</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1949604451316194</v>
+        <v>0.1904172104436525</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3345286104487488</v>
+        <v>0.3388347072307031</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3125884798442997</v>
+        <v>0.3154996244042568</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2499826198199568</v>
+        <v>0.2491175096472877</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2873488714486765</v>
+        <v>0.2734924017423629</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3471657890681583</v>
+        <v>0.3479022951737886</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3753218417441804</v>
+        <v>0.3798900608316584</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2783337553679417</v>
+        <v>0.2764930752277935</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2403286832602875</v>
+        <v>0.2436748400029018</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3599112274233274</v>
+        <v>0.3569312494696423</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3543520000204434</v>
+        <v>0.354683767626265</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3623789901640502</v>
+        <v>0.3624026539284253</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2850212896858084</v>
+        <v>0.2863911516959972</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4472781426794449</v>
+        <v>0.4397335973822942</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4285503202460889</v>
+        <v>0.4279347521826236</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3751146895309611</v>
+        <v>0.3702513128093003</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.422472470837996</v>
+        <v>0.4139717717412385</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4851958805437624</v>
+        <v>0.4810040163889165</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4700612622999594</v>
+        <v>0.4725073074425573</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3503569665684023</v>
+        <v>0.3537740996175125</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3237690406722139</v>
+        <v>0.3235836307958318</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.442823257143179</v>
+        <v>0.439856719785752</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4295460822885073</v>
+        <v>0.4263482232705577</v>
       </c>
     </row>
     <row r="22">
@@ -1737,40 +1737,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9930</v>
+        <v>9474</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6843</v>
+        <v>6296</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10133</v>
+        <v>10653</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10080</v>
+        <v>9998</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5967</v>
+        <v>6350</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6396</v>
+        <v>5324</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>14234</v>
+        <v>14357</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>20878</v>
+        <v>20724</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18095</v>
+        <v>19620</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>15573</v>
+        <v>15546</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>28556</v>
+        <v>29262</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>35814</v>
+        <v>35076</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23869</v>
+        <v>23712</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19175</v>
+        <v>20204</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23807</v>
+        <v>24456</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>25839</v>
+        <v>25712</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17621</v>
+        <v>17441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18352</v>
+        <v>18021</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28831</v>
+        <v>28013</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>34656</v>
+        <v>34390</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>35532</v>
+        <v>36415</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>32985</v>
+        <v>33022</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>48548</v>
+        <v>48643</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>55384</v>
+        <v>55639</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4824</v>
+        <v>4967</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4968</v>
+        <v>5525</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6676</v>
+        <v>6797</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6058</v>
+        <v>6496</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3253</v>
+        <v>3200</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5658</v>
+        <v>5613</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8461</v>
+        <v>8326</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10724</v>
+        <v>9899</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>7802</v>
+        <v>7461</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>15030</v>
+        <v>14719</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>17682</v>
+        <v>16840</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16597</v>
+        <v>16824</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15709</v>
+        <v>16380</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17620</v>
+        <v>18891</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18666</v>
+        <v>19329</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13420</v>
+        <v>14070</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8638</v>
+        <v>8504</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15535</v>
+        <v>15584</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19135</v>
+        <v>19332</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>25967</v>
+        <v>25474</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>21002</v>
+        <v>21012</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>30243</v>
+        <v>29738</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>34098</v>
+        <v>33533</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26582</v>
+        <v>26208</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10647</v>
+        <v>10835</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16336</v>
+        <v>16505</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13369</v>
+        <v>13093</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1690</v>
+        <v>1190</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7861</v>
+        <v>7659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2314</v>
+        <v>2250</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4111</v>
+        <v>4098</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>30033</v>
+        <v>29848</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21187</v>
+        <v>21950</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>21285</v>
+        <v>21667</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>20056</v>
+        <v>20605</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46550</v>
+        <v>46456</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26088</v>
+        <v>25193</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32832</v>
+        <v>32408</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31106</v>
+        <v>31478</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9607</v>
+        <v>9478</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19564</v>
+        <v>19143</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8581</v>
+        <v>8603</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11197</v>
+        <v>11146</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>51749</v>
+        <v>51001</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>41054</v>
+        <v>41989</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>38199</v>
+        <v>39476</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>39650</v>
+        <v>40633</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>51771</v>
+        <v>52364</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17120</v>
+        <v>17525</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44571</v>
+        <v>44147</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>49089</v>
+        <v>49480</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10095</v>
+        <v>9991</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19558</v>
+        <v>20501</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23271</v>
+        <v>22737</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>37292</v>
+        <v>36040</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>66861</v>
+        <v>66685</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>42051</v>
+        <v>42287</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>71840</v>
+        <v>72882</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>92354</v>
+        <v>90933</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>78513</v>
+        <v>80099</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>36029</v>
+        <v>35562</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>67187</v>
+        <v>68036</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>77602</v>
+        <v>78434</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22828</v>
+        <v>23000</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>36221</v>
+        <v>36817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>40592</v>
+        <v>40631</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>54671</v>
+        <v>54287</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>97725</v>
+        <v>97182</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>66970</v>
+        <v>66704</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>102011</v>
+        <v>102332</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>125635</v>
+        <v>125194</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14278</v>
+        <v>14748</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6321</v>
+        <v>6910</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18345</v>
+        <v>18420</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16348</v>
+        <v>16346</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>20021</v>
+        <v>20339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>11901</v>
+        <v>11736</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14782</v>
+        <v>14897</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>40992</v>
+        <v>42041</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>39269</v>
+        <v>39424</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>22185</v>
+        <v>21997</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>37379</v>
+        <v>38502</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>62682</v>
+        <v>62517</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30443</v>
+        <v>30780</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18933</v>
+        <v>18937</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>35368</v>
+        <v>35114</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>32933</v>
+        <v>34294</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36472</v>
+        <v>36392</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>26207</v>
+        <v>25703</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>28059</v>
+        <v>28026</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>57839</v>
+        <v>59195</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>63016</v>
+        <v>62418</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>41019</v>
+        <v>40334</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>59107</v>
+        <v>60151</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>87657</v>
+        <v>87704</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>128715</v>
+        <v>128855</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>63226</v>
+        <v>61753</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>116457</v>
+        <v>117956</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>118309</v>
+        <v>119411</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>55026</v>
+        <v>54836</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>61687</v>
+        <v>58713</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>75091</v>
+        <v>75251</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>127481</v>
+        <v>129032</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>192497</v>
+        <v>191224</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>129533</v>
+        <v>131336</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>203141</v>
+        <v>201459</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>254474</v>
+        <v>254713</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>170856</v>
+        <v>170867</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>92433</v>
+        <v>92878</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>155707</v>
+        <v>153081</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>162199</v>
+        <v>161966</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>82571</v>
+        <v>81500</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>90696</v>
+        <v>88871</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>104947</v>
+        <v>104040</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>159660</v>
+        <v>160490</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>242309</v>
+        <v>244672</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>174505</v>
+        <v>174405</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>249938</v>
+        <v>248263</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>308474</v>
+        <v>306178</v>
       </c>
     </row>
     <row r="28">
